--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value474.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value474.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9071189035687887</v>
+        <v>0.9932910203933716</v>
       </c>
       <c r="B1">
-        <v>1.338373781762989</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.634042581838255</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.28696822562883</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.341713109296609</v>
+        <v>1.157983541488647</v>
       </c>
     </row>
   </sheetData>
